--- a/Code/Results/Cases/Case_2_114/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_114/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.597288501014418</v>
+        <v>1.452596788596793</v>
       </c>
       <c r="C2">
-        <v>0.4349395514026639</v>
+        <v>0.2185145910852953</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.05796069451261321</v>
+        <v>0.1708062654801981</v>
       </c>
       <c r="F2">
-        <v>1.510811432367817</v>
+        <v>2.491899588884806</v>
       </c>
       <c r="G2">
-        <v>1.146677707096714</v>
+        <v>1.457257625380507</v>
       </c>
       <c r="H2">
-        <v>0.7343066883476865</v>
+        <v>1.320026110066692</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.052474117293416</v>
+        <v>0.08445800516152602</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2004791733651672</v>
+        <v>0.358910530734839</v>
       </c>
       <c r="M2">
-        <v>0.4546137990983539</v>
+        <v>0.3596580683717008</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.255243248927684</v>
+        <v>1.361541582130997</v>
       </c>
       <c r="C3">
-        <v>0.3906819096077641</v>
+        <v>0.2039858855056309</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.05805115627605062</v>
+        <v>0.1712053721254572</v>
       </c>
       <c r="F3">
-        <v>1.433849984971459</v>
+        <v>2.490324633412328</v>
       </c>
       <c r="G3">
-        <v>1.074302528421242</v>
+        <v>1.451293054058141</v>
       </c>
       <c r="H3">
-        <v>0.7104741346701076</v>
+        <v>1.323837418399052</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05476706380675367</v>
+        <v>0.08510190523331218</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1825856395369314</v>
+        <v>0.3556043110205707</v>
       </c>
       <c r="M3">
-        <v>0.3975444605744372</v>
+        <v>0.3453601590858</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.047056904609235</v>
+        <v>1.306211074710745</v>
       </c>
       <c r="C4">
-        <v>0.3635921135264795</v>
+        <v>0.1949808204091852</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05813250400991254</v>
+        <v>0.1714702012093472</v>
       </c>
       <c r="F4">
-        <v>1.38955880367287</v>
+        <v>2.490710674386747</v>
       </c>
       <c r="G4">
-        <v>1.03282042956792</v>
+        <v>1.448674861269083</v>
       </c>
       <c r="H4">
-        <v>0.6974756766779251</v>
+        <v>1.326899498435949</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05622246262067954</v>
+        <v>0.08551877028405563</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1717487814250873</v>
+        <v>0.3536867675908866</v>
       </c>
       <c r="M4">
-        <v>0.3628392195163528</v>
+        <v>0.3367297139114527</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.96261254657901</v>
+        <v>1.283809354036407</v>
       </c>
       <c r="C5">
-        <v>0.3525652343379591</v>
+        <v>0.1912899413631095</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05817193939123699</v>
+        <v>0.171583105896739</v>
       </c>
       <c r="F5">
-        <v>1.372208348820564</v>
+        <v>2.491207879623985</v>
       </c>
       <c r="G5">
-        <v>1.01660497236432</v>
+        <v>1.447869558273595</v>
       </c>
       <c r="H5">
-        <v>0.6925646883999264</v>
+        <v>1.328328573201588</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05682725391815779</v>
+        <v>0.08569406562051007</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.167367501918875</v>
+        <v>0.3529337698535144</v>
       </c>
       <c r="M5">
-        <v>0.3487703126495063</v>
+        <v>0.3332502565166848</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.948612507956057</v>
+        <v>1.280098397017639</v>
       </c>
       <c r="C6">
-        <v>0.3507347351707182</v>
+        <v>0.1906757901354155</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05817886168459907</v>
+        <v>0.1716021550474434</v>
       </c>
       <c r="F6">
-        <v>1.369368203858002</v>
+        <v>2.491310958532296</v>
       </c>
       <c r="G6">
-        <v>1.013952484489423</v>
+        <v>1.447751613626011</v>
       </c>
       <c r="H6">
-        <v>0.6917718333932612</v>
+        <v>1.328576808980316</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05692837944986096</v>
+        <v>0.08572350093344205</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.166642017825815</v>
+        <v>0.3528104553242954</v>
       </c>
       <c r="M6">
-        <v>0.346438340339958</v>
+        <v>0.3326747664216185</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.045916551313326</v>
+        <v>1.30590836563988</v>
       </c>
       <c r="C7">
-        <v>0.3634433620151896</v>
+        <v>0.1949311299576522</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05813301065286591</v>
+        <v>0.1714717036823057</v>
       </c>
       <c r="F7">
-        <v>1.38932204036152</v>
+        <v>2.490716004140552</v>
       </c>
       <c r="G7">
-        <v>1.032599022688316</v>
+        <v>1.448662942547145</v>
       </c>
       <c r="H7">
-        <v>0.6974079144597738</v>
+        <v>1.32691803793567</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05623057195553116</v>
+        <v>0.08552111242059013</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1716895565607075</v>
+        <v>0.3536764971663331</v>
       </c>
       <c r="M7">
-        <v>0.362649196147558</v>
+        <v>0.3366826365905311</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.478929278504438</v>
+        <v>1.421081379734915</v>
       </c>
       <c r="C8">
-        <v>0.4196564135065159</v>
+        <v>0.2135225877408971</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.05798640125487786</v>
+        <v>0.1709397800299191</v>
       </c>
       <c r="F8">
-        <v>1.483631017983399</v>
+        <v>2.491075496575334</v>
       </c>
       <c r="G8">
-        <v>1.121075049016497</v>
+        <v>1.454983789236692</v>
       </c>
       <c r="H8">
-        <v>0.7257342585619995</v>
+        <v>1.321190242994035</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05325470451899506</v>
+        <v>0.08467556456568737</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1942765970638902</v>
+        <v>0.3577472753629749</v>
       </c>
       <c r="M8">
-        <v>0.4348599951113243</v>
+        <v>0.3546974179439033</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.345924024228964</v>
+        <v>1.65150570309055</v>
       </c>
       <c r="C9">
-        <v>0.5310025964300564</v>
+        <v>0.2493136593951988</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.05791402174603277</v>
+        <v>0.170053074464676</v>
       </c>
       <c r="F9">
-        <v>1.694361151409964</v>
+        <v>2.502535601017627</v>
       </c>
       <c r="G9">
-        <v>1.320709412348066</v>
+        <v>1.475706948247648</v>
       </c>
       <c r="H9">
-        <v>0.795482819472312</v>
+        <v>1.315699995413581</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04780893759054194</v>
+        <v>0.0831876094287658</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2399004130386544</v>
+        <v>0.3666176018837604</v>
       </c>
       <c r="M9">
-        <v>0.5796547580210927</v>
+        <v>0.3911976810906168</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.998926478550459</v>
+        <v>1.823586430022829</v>
       </c>
       <c r="C10">
-        <v>0.6141729116239105</v>
+        <v>0.2752093030404978</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.05800858869236958</v>
+        <v>0.1694962607686037</v>
       </c>
       <c r="F10">
-        <v>1.868365553232252</v>
+        <v>2.517543306247248</v>
       </c>
       <c r="G10">
-        <v>1.487389584285154</v>
+        <v>1.496073565914173</v>
       </c>
       <c r="H10">
-        <v>0.8572583389517376</v>
+        <v>1.315187564430687</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.04406673255525106</v>
+        <v>0.0821974747890053</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2744497302979312</v>
+        <v>0.3736700483857618</v>
       </c>
       <c r="M10">
-        <v>0.6887916451179947</v>
+        <v>0.4187261621301843</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.300756083768704</v>
+        <v>1.902477798061284</v>
       </c>
       <c r="C11">
-        <v>0.6524790353371941</v>
+        <v>0.2869046004107076</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0580880950742122</v>
+        <v>0.1692633597001567</v>
       </c>
       <c r="F11">
-        <v>1.952545759081801</v>
+        <v>2.525808315687556</v>
       </c>
       <c r="G11">
-        <v>1.568577739113493</v>
+        <v>1.506469363458166</v>
       </c>
       <c r="H11">
-        <v>0.8881158160231166</v>
+        <v>1.31572367769212</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.04242635655227289</v>
+        <v>0.08176928369051062</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2904447750968728</v>
+        <v>0.3769935432811735</v>
       </c>
       <c r="M11">
-        <v>0.7392416369744907</v>
+        <v>0.4314036501201812</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.415856656656274</v>
+        <v>1.9324395318651</v>
       </c>
       <c r="C12">
-        <v>0.667068646908433</v>
+        <v>0.2913211933253876</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.05812388281397318</v>
+        <v>0.1691780877956974</v>
       </c>
       <c r="F12">
-        <v>1.985224620698489</v>
+        <v>2.529145323188018</v>
       </c>
       <c r="G12">
-        <v>1.600188029642737</v>
+        <v>1.510569676906584</v>
       </c>
       <c r="H12">
-        <v>0.9002407331889231</v>
+        <v>1.316037654661756</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.04181470338550142</v>
+        <v>0.08161032605152485</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2965466634864953</v>
+        <v>0.3782685338278355</v>
       </c>
       <c r="M12">
-        <v>0.7584798931210841</v>
+        <v>0.4362264173262034</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.391029912995009</v>
+        <v>1.925982863281149</v>
       </c>
       <c r="C13">
-        <v>0.6639225043392685</v>
+        <v>0.2903705414960029</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.05811591505311675</v>
+        <v>0.1691963228014561</v>
       </c>
       <c r="F13">
-        <v>1.978149643353603</v>
+        <v>2.528417415125318</v>
       </c>
       <c r="G13">
-        <v>1.593340050910768</v>
+        <v>1.509679306284227</v>
       </c>
       <c r="H13">
-        <v>0.8976091072304939</v>
+        <v>1.315965093426627</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.04194599956622547</v>
+        <v>0.08164441869617889</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2952304322434571</v>
+        <v>0.3779932119285405</v>
       </c>
       <c r="M13">
-        <v>0.7543303187879573</v>
+        <v>0.4351867687139261</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.310208640737699</v>
+        <v>1.904941021820207</v>
       </c>
       <c r="C14">
-        <v>0.653677550774205</v>
+        <v>0.2872681997590973</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.05809092279753614</v>
+        <v>0.1692562858127467</v>
       </c>
       <c r="F14">
-        <v>1.955217720632248</v>
+        <v>2.526078697533052</v>
       </c>
       <c r="G14">
-        <v>1.5711604001892</v>
+        <v>1.506803413031378</v>
       </c>
       <c r="H14">
-        <v>0.889104258152031</v>
+        <v>1.315747282903715</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.04237584079757362</v>
+        <v>0.08175614227539363</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2909458513372982</v>
+        <v>0.3770981084454661</v>
       </c>
       <c r="M14">
-        <v>0.7408215829300602</v>
+        <v>0.4317999805141142</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.26081171703504</v>
+        <v>1.892063636781813</v>
       </c>
       <c r="C15">
-        <v>0.6474136587829946</v>
+        <v>0.2853663427933384</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.05807636803016258</v>
+        <v>0.1692933952048143</v>
       </c>
       <c r="F15">
-        <v>1.941278138623346</v>
+        <v>2.524673166208501</v>
       </c>
       <c r="G15">
-        <v>1.557690498411802</v>
+        <v>1.50506318797747</v>
       </c>
       <c r="H15">
-        <v>0.8839534499592219</v>
+        <v>1.315628328670471</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.04264039077372317</v>
+        <v>0.08182499130026955</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2883274237935609</v>
+        <v>0.3765519709796195</v>
       </c>
       <c r="M15">
-        <v>0.7325651156550137</v>
+        <v>0.4297283454308243</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.979307067556135</v>
+        <v>1.818442938568467</v>
       </c>
       <c r="C16">
-        <v>0.6116803402140931</v>
+        <v>0.2744432844134224</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.05800416262665697</v>
+        <v>0.1695118909436371</v>
       </c>
       <c r="F16">
-        <v>1.862971870375688</v>
+        <v>2.517032142123</v>
       </c>
       <c r="G16">
-        <v>1.482199563142217</v>
+        <v>1.495417020727302</v>
       </c>
       <c r="H16">
-        <v>0.8553008023170605</v>
+        <v>1.315168036685918</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.04417523194944728</v>
+        <v>0.08222590471544322</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2734104247158484</v>
+        <v>0.3734551596131581</v>
       </c>
       <c r="M16">
-        <v>0.6855123142126587</v>
+        <v>0.4179007565418473</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.807916020272046</v>
+        <v>1.77343509679713</v>
       </c>
       <c r="C17">
-        <v>0.589890771865214</v>
+        <v>0.2677206502683589</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.05796950144565116</v>
+        <v>0.1696511476103977</v>
       </c>
       <c r="F17">
-        <v>1.816274284487534</v>
+        <v>2.512713232706332</v>
       </c>
       <c r="G17">
-        <v>1.437326586407039</v>
+        <v>1.489789794492424</v>
       </c>
       <c r="H17">
-        <v>0.8384586909361644</v>
+        <v>1.31508292637514</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.04513308362848001</v>
+        <v>0.08247753956053394</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2643339548620247</v>
+        <v>0.3715848081536848</v>
       </c>
       <c r="M17">
-        <v>0.6568651764195081</v>
+        <v>0.4106844067978486</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.709778185357493</v>
+        <v>1.747605318051683</v>
       </c>
       <c r="C18">
-        <v>0.57740130402712</v>
+        <v>0.2638459890723084</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.05795297020618806</v>
+        <v>0.1697331647610527</v>
       </c>
       <c r="F18">
-        <v>1.789882838465715</v>
+        <v>2.510364427610526</v>
       </c>
       <c r="G18">
-        <v>1.412015542567559</v>
+        <v>1.486659549034357</v>
       </c>
       <c r="H18">
-        <v>0.8290280432120767</v>
+        <v>1.315106354875496</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.04568980568414993</v>
+        <v>0.08262436568253406</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2591392932795742</v>
+        <v>0.3705198915740056</v>
       </c>
       <c r="M18">
-        <v>0.6404624774135499</v>
+        <v>0.4065483184208105</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.676622890572844</v>
+        <v>1.738869699423333</v>
       </c>
       <c r="C19">
-        <v>0.5731795628942109</v>
+        <v>0.2625327240773174</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.05794794560833383</v>
+        <v>0.1697612645054223</v>
       </c>
       <c r="F19">
-        <v>1.781025205920656</v>
+        <v>2.509592389599604</v>
       </c>
       <c r="G19">
-        <v>1.40352858623956</v>
+        <v>1.485617942424796</v>
       </c>
       <c r="H19">
-        <v>0.825877784997374</v>
+        <v>1.315126708362243</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.04587927981687301</v>
+        <v>0.08267443808259145</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2573847746765239</v>
+        <v>0.3701611981896207</v>
       </c>
       <c r="M19">
-        <v>0.6349210477889073</v>
+        <v>0.4051504164773903</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.826114356799849</v>
+        <v>1.778220307296863</v>
       </c>
       <c r="C20">
-        <v>0.5922057147408282</v>
+        <v>0.2684371118468221</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.05797283584560065</v>
+        <v>0.1696361248208431</v>
       </c>
       <c r="F20">
-        <v>1.821196362037384</v>
+        <v>2.513158979894783</v>
       </c>
       <c r="G20">
-        <v>1.442051123006422</v>
+        <v>1.490377804363362</v>
       </c>
       <c r="H20">
-        <v>0.8402247153945268</v>
+        <v>1.315084492781978</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.04503051521639456</v>
+        <v>0.08245053609863717</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2652974478592398</v>
+        <v>0.3717827871897441</v>
       </c>
       <c r="M20">
-        <v>0.6599068877246879</v>
+        <v>0.4114510932837447</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.333924981196276</v>
+        <v>1.9111191562925</v>
       </c>
       <c r="C21">
-        <v>0.6566843269132221</v>
+        <v>0.2881797625893512</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.05809810569051699</v>
+        <v>0.1692385939834979</v>
       </c>
       <c r="F21">
-        <v>1.9619309552115</v>
+        <v>2.526760007837098</v>
       </c>
       <c r="G21">
-        <v>1.577650790368807</v>
+        <v>1.507643682979278</v>
       </c>
       <c r="H21">
-        <v>0.8915900297504891</v>
+        <v>1.315808244847261</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.04224932223225508</v>
+        <v>0.08172323985583496</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2922030764007104</v>
+        <v>0.3773605764371979</v>
       </c>
       <c r="M21">
-        <v>0.7447856343276271</v>
+        <v>0.4327941643797715</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.670560262295623</v>
+        <v>1.998484749560134</v>
       </c>
       <c r="C22">
-        <v>0.6993228105737899</v>
+        <v>0.301011848732827</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.05821333590318911</v>
+        <v>0.1689958155308267</v>
       </c>
       <c r="F22">
-        <v>2.058624479148733</v>
+        <v>2.536857161116458</v>
       </c>
       <c r="G22">
-        <v>1.671372827398955</v>
+        <v>1.519882290934078</v>
       </c>
       <c r="H22">
-        <v>0.9277478271088171</v>
+        <v>1.316928196782072</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.04048750971549175</v>
+        <v>0.08126649497850913</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3100518663372043</v>
+        <v>0.3811018405015574</v>
       </c>
       <c r="M22">
-        <v>0.8010495034233642</v>
+        <v>0.4468717091007335</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.490414705723992</v>
+        <v>1.951809742985517</v>
       </c>
       <c r="C23">
-        <v>0.676514461286871</v>
+        <v>0.294169598734328</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.05814862249926112</v>
+        <v>0.1691238359845384</v>
       </c>
       <c r="F23">
-        <v>2.006557573761526</v>
+        <v>2.531357428518334</v>
       </c>
       <c r="G23">
-        <v>1.620850968403573</v>
+        <v>1.513262652271834</v>
       </c>
       <c r="H23">
-        <v>0.9081972917845462</v>
+        <v>1.316271146474634</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.04142248260657944</v>
+        <v>0.08150856995280442</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3004996961071527</v>
+        <v>0.3790963275051809</v>
       </c>
       <c r="M23">
-        <v>0.7709414534992973</v>
+        <v>0.4393465421869607</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.817885660514776</v>
+        <v>1.776056770837101</v>
       </c>
       <c r="C24">
-        <v>0.5911590130039599</v>
+        <v>0.2681132298761781</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.05797131781768661</v>
+        <v>0.1696429105291166</v>
       </c>
       <c r="F24">
-        <v>1.818969677507468</v>
+        <v>2.512957039626613</v>
       </c>
       <c r="G24">
-        <v>1.439913650056951</v>
+        <v>1.490111638358087</v>
       </c>
       <c r="H24">
-        <v>0.839425513721153</v>
+        <v>1.315083559239724</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.04507686762599761</v>
+        <v>0.0824627376411069</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2648617797727297</v>
+        <v>0.371693248547956</v>
       </c>
       <c r="M24">
-        <v>0.6585315229673085</v>
+        <v>0.4111044347929678</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.108966141543135</v>
+        <v>1.588680430438671</v>
       </c>
       <c r="C25">
-        <v>0.5006947902802779</v>
+        <v>0.2397019533725882</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.05790899188750309</v>
+        <v>0.1702762809285914</v>
       </c>
       <c r="F25">
-        <v>1.634253390611264</v>
+        <v>2.49828069481633</v>
       </c>
       <c r="G25">
-        <v>1.263507165743022</v>
+        <v>1.469202570734126</v>
       </c>
       <c r="H25">
-        <v>0.7749107569044327</v>
+        <v>1.316568393789396</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.04923845600806409</v>
+        <v>0.08357199495692313</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2273941380030209</v>
+        <v>0.3641235163517962</v>
       </c>
       <c r="M25">
-        <v>0.5400631903698141</v>
+        <v>0.381198162185747</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_114/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_114/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.452596788596793</v>
+        <v>2.597288501014418</v>
       </c>
       <c r="C2">
-        <v>0.2185145910852953</v>
+        <v>0.4349395514027776</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1708062654801981</v>
+        <v>0.0579606945126292</v>
       </c>
       <c r="F2">
-        <v>2.491899588884806</v>
+        <v>1.510811432367817</v>
       </c>
       <c r="G2">
-        <v>1.457257625380507</v>
+        <v>1.1466777070967</v>
       </c>
       <c r="H2">
-        <v>1.320026110066692</v>
+        <v>0.7343066883476865</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08445800516152602</v>
+        <v>0.05247411729333251</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.358910530734839</v>
+        <v>0.2004791733651743</v>
       </c>
       <c r="M2">
-        <v>0.3596580683717008</v>
+        <v>0.4546137990983468</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.361541582130997</v>
+        <v>2.255243248927741</v>
       </c>
       <c r="C3">
-        <v>0.2039858855056309</v>
+        <v>0.3906819096078777</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1712053721254572</v>
+        <v>0.05805115627605195</v>
       </c>
       <c r="F3">
-        <v>2.490324633412328</v>
+        <v>1.433849984971474</v>
       </c>
       <c r="G3">
-        <v>1.451293054058141</v>
+        <v>1.0743025284212</v>
       </c>
       <c r="H3">
-        <v>1.323837418399052</v>
+        <v>0.7104741346699939</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08510190523331218</v>
+        <v>0.05476706380667196</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3556043110205707</v>
+        <v>0.1825856395369811</v>
       </c>
       <c r="M3">
-        <v>0.3453601590858</v>
+        <v>0.39754446057443</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.306211074710745</v>
+        <v>2.047056904609235</v>
       </c>
       <c r="C4">
-        <v>0.1949808204091852</v>
+        <v>0.3635921135268632</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1714702012093472</v>
+        <v>0.05813250400990677</v>
       </c>
       <c r="F4">
-        <v>2.490710674386747</v>
+        <v>1.389558803672884</v>
       </c>
       <c r="G4">
-        <v>1.448674861269083</v>
+        <v>1.032820429567877</v>
       </c>
       <c r="H4">
-        <v>1.326899498435949</v>
+        <v>0.6974756766779251</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08551877028405563</v>
+        <v>0.05622246262069552</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3536867675908866</v>
+        <v>0.1717487814250376</v>
       </c>
       <c r="M4">
-        <v>0.3367297139114527</v>
+        <v>0.3628392195163528</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.283809354036407</v>
+        <v>1.96261254657918</v>
       </c>
       <c r="C5">
-        <v>0.1912899413631095</v>
+        <v>0.3525652343379591</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.171583105896739</v>
+        <v>0.05817193939123433</v>
       </c>
       <c r="F5">
-        <v>2.491207879623985</v>
+        <v>1.372208348820564</v>
       </c>
       <c r="G5">
-        <v>1.447869558273595</v>
+        <v>1.016604972364263</v>
       </c>
       <c r="H5">
-        <v>1.328328573201588</v>
+        <v>0.6925646883999264</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08569406562051007</v>
+        <v>0.05682725391819865</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3529337698535144</v>
+        <v>0.1673675019189318</v>
       </c>
       <c r="M5">
-        <v>0.3332502565166848</v>
+        <v>0.3487703126495063</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.280098397017639</v>
+        <v>1.948612507956</v>
       </c>
       <c r="C6">
-        <v>0.1906757901354155</v>
+        <v>0.3507347351705903</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1716021550474434</v>
+        <v>0.05817886168461639</v>
       </c>
       <c r="F6">
-        <v>2.491310958532296</v>
+        <v>1.36936820385796</v>
       </c>
       <c r="G6">
-        <v>1.447751613626011</v>
+        <v>1.013952484489309</v>
       </c>
       <c r="H6">
-        <v>1.328576808980316</v>
+        <v>0.6917718333932612</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.08572350093344205</v>
+        <v>0.05692837944993201</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3528104553242954</v>
+        <v>0.1666420178259926</v>
       </c>
       <c r="M6">
-        <v>0.3326747664216185</v>
+        <v>0.3464383403399651</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.30590836563988</v>
+        <v>2.045916551313326</v>
       </c>
       <c r="C7">
-        <v>0.1949311299576522</v>
+        <v>0.3634433620153033</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1714717036823057</v>
+        <v>0.05813301065286547</v>
       </c>
       <c r="F7">
-        <v>2.490716004140552</v>
+        <v>1.38932204036152</v>
       </c>
       <c r="G7">
-        <v>1.448662942547145</v>
+        <v>1.032599022688402</v>
       </c>
       <c r="H7">
-        <v>1.32691803793567</v>
+        <v>0.6974079144596459</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08552111242059013</v>
+        <v>0.05623057195555958</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3536764971663331</v>
+        <v>0.1716895565607359</v>
       </c>
       <c r="M7">
-        <v>0.3366826365905311</v>
+        <v>0.3626491961475722</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.421081379734915</v>
+        <v>2.478929278504381</v>
       </c>
       <c r="C8">
-        <v>0.2135225877408971</v>
+        <v>0.4196564135065444</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1709397800299191</v>
+        <v>0.05798640125488008</v>
       </c>
       <c r="F8">
-        <v>2.491075496575334</v>
+        <v>1.483631017983399</v>
       </c>
       <c r="G8">
-        <v>1.454983789236692</v>
+        <v>1.121075049016511</v>
       </c>
       <c r="H8">
-        <v>1.321190242994035</v>
+        <v>0.7257342585619995</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08467556456568737</v>
+        <v>0.05325470451901992</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3577472753629749</v>
+        <v>0.1942765970636842</v>
       </c>
       <c r="M8">
-        <v>0.3546974179439033</v>
+        <v>0.434859995111303</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.65150570309055</v>
+        <v>3.345924024228907</v>
       </c>
       <c r="C9">
-        <v>0.2493136593951988</v>
+        <v>0.5310025964299996</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.170053074464676</v>
+        <v>0.0579140217460119</v>
       </c>
       <c r="F9">
-        <v>2.502535601017627</v>
+        <v>1.694361151409979</v>
       </c>
       <c r="G9">
-        <v>1.475706948247648</v>
+        <v>1.320709412347981</v>
       </c>
       <c r="H9">
-        <v>1.315699995413581</v>
+        <v>0.795482819472312</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0831876094287658</v>
+        <v>0.0478089375905153</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3666176018837604</v>
+        <v>0.2399004130386402</v>
       </c>
       <c r="M9">
-        <v>0.3911976810906168</v>
+        <v>0.5796547580211069</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.823586430022829</v>
+        <v>3.998926478550402</v>
       </c>
       <c r="C10">
-        <v>0.2752093030404978</v>
+        <v>0.6141729116238821</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1694962607686037</v>
+        <v>0.05800858869237047</v>
       </c>
       <c r="F10">
-        <v>2.517543306247248</v>
+        <v>1.868365553232266</v>
       </c>
       <c r="G10">
-        <v>1.496073565914173</v>
+        <v>1.48738958428504</v>
       </c>
       <c r="H10">
-        <v>1.315187564430687</v>
+        <v>0.8572583389518513</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0821974747890053</v>
+        <v>0.04406673255525817</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3736700483857618</v>
+        <v>0.2744497302979738</v>
       </c>
       <c r="M10">
-        <v>0.4187261621301843</v>
+        <v>0.6887916451179805</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.902477798061284</v>
+        <v>4.300756083768647</v>
       </c>
       <c r="C11">
-        <v>0.2869046004107076</v>
+        <v>0.652479035337052</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1692633597001567</v>
+        <v>0.05808809507420332</v>
       </c>
       <c r="F11">
-        <v>2.525808315687556</v>
+        <v>1.952545759081815</v>
       </c>
       <c r="G11">
-        <v>1.506469363458166</v>
+        <v>1.568577739113465</v>
       </c>
       <c r="H11">
-        <v>1.31572367769212</v>
+        <v>0.8881158160231166</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08176928369051062</v>
+        <v>0.04242635655233862</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3769935432811735</v>
+        <v>0.2904447750969297</v>
       </c>
       <c r="M11">
-        <v>0.4314036501201812</v>
+        <v>0.7392416369744836</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.9324395318651</v>
+        <v>4.415856656656217</v>
       </c>
       <c r="C12">
-        <v>0.2913211933253876</v>
+        <v>0.6670686469086036</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1691780877956974</v>
+        <v>0.05812388281397318</v>
       </c>
       <c r="F12">
-        <v>2.529145323188018</v>
+        <v>1.985224620698489</v>
       </c>
       <c r="G12">
-        <v>1.510569676906584</v>
+        <v>1.600188029642737</v>
       </c>
       <c r="H12">
-        <v>1.316037654661756</v>
+        <v>0.9002407331889231</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.08161032605152485</v>
+        <v>0.04181470338543392</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3782685338278355</v>
+        <v>0.2965466634864669</v>
       </c>
       <c r="M12">
-        <v>0.4362264173262034</v>
+        <v>0.758479893121077</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.925982863281149</v>
+        <v>4.391029912994895</v>
       </c>
       <c r="C13">
-        <v>0.2903705414960029</v>
+        <v>0.6639225043394106</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1691963228014561</v>
+        <v>0.05811591505311053</v>
       </c>
       <c r="F13">
-        <v>2.528417415125318</v>
+        <v>1.978149643353618</v>
       </c>
       <c r="G13">
-        <v>1.509679306284227</v>
+        <v>1.593340050910797</v>
       </c>
       <c r="H13">
-        <v>1.315965093426627</v>
+        <v>0.8976091072304939</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.08164441869617889</v>
+        <v>0.0419459995662681</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3779932119285405</v>
+        <v>0.2952304322434003</v>
       </c>
       <c r="M13">
-        <v>0.4351867687139261</v>
+        <v>0.7543303187879431</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.904941021820207</v>
+        <v>4.310208640737812</v>
       </c>
       <c r="C14">
-        <v>0.2872681997590973</v>
+        <v>0.6536775507738639</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1692562858127467</v>
+        <v>0.05809092279751216</v>
       </c>
       <c r="F14">
-        <v>2.526078697533052</v>
+        <v>1.955217720632248</v>
       </c>
       <c r="G14">
-        <v>1.506803413031378</v>
+        <v>1.5711604001892</v>
       </c>
       <c r="H14">
-        <v>1.315747282903715</v>
+        <v>0.8891042581519173</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.08175614227539363</v>
+        <v>0.04237584079763046</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3770981084454661</v>
+        <v>0.2909458513372556</v>
       </c>
       <c r="M14">
-        <v>0.4317999805141142</v>
+        <v>0.7408215829300531</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.892063636781813</v>
+        <v>4.260811717034983</v>
       </c>
       <c r="C15">
-        <v>0.2853663427933384</v>
+        <v>0.6474136587827957</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1692933952048143</v>
+        <v>0.05807636803016702</v>
       </c>
       <c r="F15">
-        <v>2.524673166208501</v>
+        <v>1.941278138623375</v>
       </c>
       <c r="G15">
-        <v>1.50506318797747</v>
+        <v>1.55769049841183</v>
       </c>
       <c r="H15">
-        <v>1.315628328670471</v>
+        <v>0.8839534499592219</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.08182499130026955</v>
+        <v>0.04264039077384929</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3765519709796195</v>
+        <v>0.2883274237936178</v>
       </c>
       <c r="M15">
-        <v>0.4297283454308243</v>
+        <v>0.7325651156549995</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.818442938568467</v>
+        <v>3.979307067556249</v>
       </c>
       <c r="C16">
-        <v>0.2744432844134224</v>
+        <v>0.6116803402142068</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1695118909436371</v>
+        <v>0.05800416262666896</v>
       </c>
       <c r="F16">
-        <v>2.517032142123</v>
+        <v>1.862971870375688</v>
       </c>
       <c r="G16">
-        <v>1.495417020727302</v>
+        <v>1.482199563142188</v>
       </c>
       <c r="H16">
-        <v>1.315168036685918</v>
+        <v>0.8553008023170889</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.08222590471544322</v>
+        <v>0.04417523194952899</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3734551596131581</v>
+        <v>0.2734104247158484</v>
       </c>
       <c r="M16">
-        <v>0.4179007565418473</v>
+        <v>0.6855123142126729</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.77343509679713</v>
+        <v>3.80791602027216</v>
       </c>
       <c r="C17">
-        <v>0.2677206502683589</v>
+        <v>0.5898907718653277</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1696511476103977</v>
+        <v>0.05796950144562274</v>
       </c>
       <c r="F17">
-        <v>2.512713232706332</v>
+        <v>1.81627428448752</v>
       </c>
       <c r="G17">
-        <v>1.489789794492424</v>
+        <v>1.437326586407039</v>
       </c>
       <c r="H17">
-        <v>1.31508292637514</v>
+        <v>0.838458690936136</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08247753956053394</v>
+        <v>0.04513308362846402</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3715848081536848</v>
+        <v>0.2643339548619679</v>
       </c>
       <c r="M17">
-        <v>0.4106844067978486</v>
+        <v>0.6568651764195224</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.747605318051683</v>
+        <v>3.709778185357663</v>
       </c>
       <c r="C18">
-        <v>0.2638459890723084</v>
+        <v>0.5774013040272052</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1697331647610527</v>
+        <v>0.05795297020618717</v>
       </c>
       <c r="F18">
-        <v>2.510364427610526</v>
+        <v>1.789882838465701</v>
       </c>
       <c r="G18">
-        <v>1.486659549034357</v>
+        <v>1.412015542567588</v>
       </c>
       <c r="H18">
-        <v>1.315106354875496</v>
+        <v>0.8290280432121904</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08262436568253406</v>
+        <v>0.0456898056841073</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3705198915740056</v>
+        <v>0.259139293279631</v>
       </c>
       <c r="M18">
-        <v>0.4065483184208105</v>
+        <v>0.6404624774135499</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.738869699423333</v>
+        <v>3.676622890572958</v>
       </c>
       <c r="C19">
-        <v>0.2625327240773174</v>
+        <v>0.5731795628942962</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1697612645054223</v>
+        <v>0.05794794560832894</v>
       </c>
       <c r="F19">
-        <v>2.509592389599604</v>
+        <v>1.78102520592067</v>
       </c>
       <c r="G19">
-        <v>1.485617942424796</v>
+        <v>1.403528586239531</v>
       </c>
       <c r="H19">
-        <v>1.315126708362243</v>
+        <v>0.8258777849972319</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08267443808259145</v>
+        <v>0.04587927981680551</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3701611981896207</v>
+        <v>0.2573847746764955</v>
       </c>
       <c r="M19">
-        <v>0.4051504164773903</v>
+        <v>0.6349210477889002</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.778220307296863</v>
+        <v>3.826114356799792</v>
       </c>
       <c r="C20">
-        <v>0.2684371118468221</v>
+        <v>0.5922057147408282</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1696361248208431</v>
+        <v>0.05797283584558022</v>
       </c>
       <c r="F20">
-        <v>2.513158979894783</v>
+        <v>1.821196362037384</v>
       </c>
       <c r="G20">
-        <v>1.490377804363362</v>
+        <v>1.442051123006451</v>
       </c>
       <c r="H20">
-        <v>1.315084492781978</v>
+        <v>0.8402247153945268</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.08245053609863717</v>
+        <v>0.04503051521639101</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3717827871897441</v>
+        <v>0.2652974478593819</v>
       </c>
       <c r="M20">
-        <v>0.4114510932837447</v>
+        <v>0.659906887724695</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.9111191562925</v>
+        <v>4.333924981196503</v>
       </c>
       <c r="C21">
-        <v>0.2881797625893512</v>
+        <v>0.6566843269133642</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1692385939834979</v>
+        <v>0.05809810569050011</v>
       </c>
       <c r="F21">
-        <v>2.526760007837098</v>
+        <v>1.9619309552115</v>
       </c>
       <c r="G21">
-        <v>1.507643682979278</v>
+        <v>1.577650790368807</v>
       </c>
       <c r="H21">
-        <v>1.315808244847261</v>
+        <v>0.8915900297506028</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.08172323985583496</v>
+        <v>0.04224932223224442</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3773605764371979</v>
+        <v>0.2922030764007104</v>
       </c>
       <c r="M21">
-        <v>0.4327941643797715</v>
+        <v>0.74478563432762</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.998484749560134</v>
+        <v>4.67056026229568</v>
       </c>
       <c r="C22">
-        <v>0.301011848732827</v>
+        <v>0.6993228105738751</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1689958155308267</v>
+        <v>0.0582133359032122</v>
       </c>
       <c r="F22">
-        <v>2.536857161116458</v>
+        <v>2.058624479148747</v>
       </c>
       <c r="G22">
-        <v>1.519882290934078</v>
+        <v>1.671372827398812</v>
       </c>
       <c r="H22">
-        <v>1.316928196782072</v>
+        <v>0.9277478271087318</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.08126649497850913</v>
+        <v>0.04048750971553083</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3811018405015574</v>
+        <v>0.3100518663371474</v>
       </c>
       <c r="M22">
-        <v>0.4468717091007335</v>
+        <v>0.8010495034233571</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.951809742985517</v>
+        <v>4.490414705724049</v>
       </c>
       <c r="C23">
-        <v>0.294169598734328</v>
+        <v>0.676514461286871</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1691238359845384</v>
+        <v>0.05814862249926289</v>
       </c>
       <c r="F23">
-        <v>2.531357428518334</v>
+        <v>2.006557573761512</v>
       </c>
       <c r="G23">
-        <v>1.513262652271834</v>
+        <v>1.62085096840363</v>
       </c>
       <c r="H23">
-        <v>1.316271146474634</v>
+        <v>0.9081972917846599</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.08150856995280442</v>
+        <v>0.04142248260653503</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3790963275051809</v>
+        <v>0.3004996961071527</v>
       </c>
       <c r="M23">
-        <v>0.4393465421869607</v>
+        <v>0.7709414534992973</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.776056770837101</v>
+        <v>3.817885660514719</v>
       </c>
       <c r="C24">
-        <v>0.2681132298761781</v>
+        <v>0.5911590130041304</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1696429105291166</v>
+        <v>0.05797131781766973</v>
       </c>
       <c r="F24">
-        <v>2.512957039626613</v>
+        <v>1.818969677507482</v>
       </c>
       <c r="G24">
-        <v>1.490111638358087</v>
+        <v>1.43991365005698</v>
       </c>
       <c r="H24">
-        <v>1.315083559239724</v>
+        <v>0.839425513721153</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0824627376411069</v>
+        <v>0.04507686762609175</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.371693248547956</v>
+        <v>0.2648617797728008</v>
       </c>
       <c r="M24">
-        <v>0.4111044347929678</v>
+        <v>0.6585315229673014</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.588680430438671</v>
+        <v>3.108966141543135</v>
       </c>
       <c r="C25">
-        <v>0.2397019533725882</v>
+        <v>0.5006947902801926</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1702762809285914</v>
+        <v>0.05790899188750753</v>
       </c>
       <c r="F25">
-        <v>2.49828069481633</v>
+        <v>1.634253390611278</v>
       </c>
       <c r="G25">
-        <v>1.469202570734126</v>
+        <v>1.263507165742993</v>
       </c>
       <c r="H25">
-        <v>1.316568393789396</v>
+        <v>0.7749107569044327</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08357199495692313</v>
+        <v>0.04923845600811916</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3641235163517962</v>
+        <v>0.2273941380030351</v>
       </c>
       <c r="M25">
-        <v>0.381198162185747</v>
+        <v>0.5400631903698141</v>
       </c>
       <c r="N25">
         <v>0</v>
